--- a/3) Январь/911/911 Разработка моб приложений_январь.xlsx
+++ b/3) Январь/911/911 Разработка моб приложений_январь.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\3) Январь\911\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F778C1-FC5B-417C-9108-C93F575E8180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6045A227-483F-4251-B556-D44D7AE73C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="51">
   <si>
     <t>Александров Никита</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>Лекция 3.2</t>
+  </si>
+  <si>
+    <t>Практика 2.8</t>
+  </si>
+  <si>
+    <t>Практика 2.9</t>
+  </si>
+  <si>
+    <t>Практика 2.10</t>
+  </si>
+  <si>
+    <t>Практика 2.7</t>
   </si>
 </sst>
 </file>
@@ -566,27 +578,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="87" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
     <col min="17" max="17" width="14.140625" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" customWidth="1"/>
@@ -1684,9 +1696,18 @@
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
       <c r="D33" t="s">
         <v>42</v>
       </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" t="s">
         <v>43</v>
       </c>
@@ -1696,8 +1717,26 @@
       <c r="H33" t="s">
         <v>43</v>
       </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
       <c r="K33" t="s">
         <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" t="s">
+        <v>49</v>
+      </c>
+      <c r="O33" t="s">
+        <v>49</v>
       </c>
       <c r="P33" t="s">
         <v>44</v>
@@ -1727,6 +1766,15 @@
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
